--- a/tests/testthat/testdata_ISR.xlsx
+++ b/tests/testthat/testdata_ISR.xlsx
@@ -2,21 +2,22 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Georgina.Anderson\Documents\R\Projects\PHEstatmethods\tests\testthat\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="testdata_small" sheetId="3" r:id="rId1"/>
-    <sheet name="testdata_big" sheetId="1" r:id="rId2"/>
-    <sheet name="testdata_multiarea" sheetId="5" r:id="rId3"/>
-    <sheet name="testresults" sheetId="4" r:id="rId4"/>
-    <sheet name="refdata" sheetId="6" r:id="rId5"/>
+    <sheet name="testdata_err1" sheetId="8" r:id="rId1"/>
+    <sheet name="testdata_err2" sheetId="7" r:id="rId2"/>
+    <sheet name="testdata_err3" sheetId="9" r:id="rId3"/>
+    <sheet name="testdata_multiarea" sheetId="5" r:id="rId4"/>
+    <sheet name="testresults" sheetId="4" r:id="rId5"/>
+    <sheet name="refdata" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="41">
   <si>
     <t>0-4</t>
   </si>
@@ -108,9 +109,6 @@
     <t>ageband</t>
   </si>
   <si>
-    <t>total_count</t>
-  </si>
-  <si>
     <t>lower95cl</t>
   </si>
   <si>
@@ -135,43 +133,38 @@
     <t>isr</t>
   </si>
   <si>
-    <t>expected_count</t>
+    <t>testdata_tiny</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>ref_0</t>
+  </si>
+  <si>
+    <t>ref_100</t>
+  </si>
+  <si>
+    <t>rate_100000</t>
+  </si>
+  <si>
+    <t>observed</t>
+  </si>
+  <si>
+    <t>expected</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="??0.00"/>
-    <numFmt numFmtId="165" formatCode="?,??0"/>
-    <numFmt numFmtId="166" formatCode="??,??0"/>
-    <numFmt numFmtId="167" formatCode="?,???,??0"/>
-  </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -182,19 +175,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -209,65 +208,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -548,368 +498,829 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E22"/>
+  <sheetPr codeName="Sheet5"/>
+  <dimension ref="A1:D58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B20"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>127</v>
+      </c>
+      <c r="D2">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>25</v>
+      </c>
+      <c r="D3">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>18</v>
+      </c>
+      <c r="D4">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5">
         <v>21</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="D5">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>27</v>
+      </c>
+      <c r="D7">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>48</v>
+      </c>
+      <c r="D8">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4">
+        <v>-26</v>
+      </c>
+      <c r="D9">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>29</v>
+      </c>
+      <c r="D10">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11">
         <v>32</v>
       </c>
-      <c r="E1" s="19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4">
+      <c r="D11">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>32</v>
+      </c>
+      <c r="D12">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>34</v>
+      </c>
+      <c r="D13">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C14">
+        <v>45</v>
+      </c>
+      <c r="D14">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15">
+        <v>65</v>
+      </c>
+      <c r="D15">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16">
+        <v>38</v>
+      </c>
+      <c r="D16">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>68</v>
+      </c>
+      <c r="D17">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>74</v>
+      </c>
+      <c r="D18">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>82</v>
+      </c>
+      <c r="D19">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>91</v>
+      </c>
+      <c r="D20">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>12</v>
+      </c>
+      <c r="D21">
         <v>636</v>
       </c>
-      <c r="D2" s="6">
-        <v>10303</v>
-      </c>
-      <c r="E2" s="2">
-        <v>50520</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="10">
+      <c r="C22">
         <v>4</v>
       </c>
-      <c r="C3" s="11">
+      <c r="D22">
         <v>558</v>
       </c>
-      <c r="D3" s="12">
-        <v>2824</v>
-      </c>
-      <c r="E3" s="2">
-        <v>57173</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="10">
+      <c r="C23">
         <v>3</v>
       </c>
-      <c r="C4" s="11">
+      <c r="D23">
         <v>609</v>
       </c>
-      <c r="D4" s="12">
-        <v>3225</v>
-      </c>
-      <c r="E4" s="2">
-        <v>60213</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="4">
+      <c r="C24">
         <v>2</v>
       </c>
-      <c r="C5" s="5">
+      <c r="D24">
         <v>543</v>
       </c>
-      <c r="D5" s="6">
-        <v>3615</v>
-      </c>
-      <c r="E5" s="2">
-        <v>54659</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="4">
+      <c r="C25">
         <v>3</v>
       </c>
-      <c r="C6" s="5">
+      <c r="D25">
         <v>384</v>
       </c>
-      <c r="D6" s="6">
-        <v>3641</v>
-      </c>
-      <c r="E6" s="2">
-        <v>44345</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="4">
+      <c r="C26">
         <v>4</v>
       </c>
-      <c r="C7" s="5">
+      <c r="D26">
         <v>594</v>
       </c>
-      <c r="D7" s="6">
-        <v>3490</v>
-      </c>
-      <c r="E7" s="2">
-        <v>50128</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="4">
+      <c r="C27">
         <v>8</v>
       </c>
-      <c r="C8" s="5">
+      <c r="D27">
         <v>669</v>
       </c>
-      <c r="D8" s="6">
-        <v>3789</v>
-      </c>
-      <c r="E8" s="2">
-        <v>62163</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="4">
+      <c r="C28">
         <v>2</v>
       </c>
-      <c r="C9" s="5">
+      <c r="D28">
         <v>843</v>
       </c>
-      <c r="D9" s="6">
-        <v>3213</v>
-      </c>
-      <c r="E9" s="2">
-        <v>67423</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="4">
+      <c r="C29">
         <v>2</v>
       </c>
-      <c r="C10" s="5">
+      <c r="D29">
         <v>660</v>
       </c>
-      <c r="D10" s="6">
-        <v>3031</v>
-      </c>
-      <c r="E10" s="2">
-        <v>62899</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="4">
+      <c r="C30">
         <v>3</v>
       </c>
-      <c r="C11" s="5">
+      <c r="D30">
         <v>576</v>
       </c>
-      <c r="D11" s="6">
-        <v>2771</v>
-      </c>
-      <c r="E11" s="2">
-        <v>55463</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="4">
+      <c r="C31">
         <v>4</v>
       </c>
-      <c r="C12" s="5">
+      <c r="D31">
         <v>606</v>
       </c>
-      <c r="D12" s="6">
-        <v>3089</v>
-      </c>
-      <c r="E12" s="2">
-        <v>60479</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="4">
+      <c r="C32">
         <v>5</v>
       </c>
-      <c r="C13" s="5">
+      <c r="D32">
         <v>522</v>
       </c>
-      <c r="D13" s="6">
-        <v>3490</v>
-      </c>
-      <c r="E13" s="2">
-        <v>49974</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="4">
+      <c r="C33">
         <v>6</v>
       </c>
-      <c r="C14" s="5">
+      <c r="D33">
         <v>426</v>
       </c>
-      <c r="D14" s="6">
-        <v>3595</v>
-      </c>
-      <c r="E14" s="2">
-        <v>44140</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="4">
+      <c r="C34">
         <v>8</v>
       </c>
-      <c r="C15" s="5">
+      <c r="D34">
         <v>273</v>
       </c>
-      <c r="D15" s="6">
-        <v>4745</v>
-      </c>
-      <c r="E15" s="2">
-        <v>40888</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="4">
+      <c r="C35">
         <v>5</v>
       </c>
-      <c r="C16" s="5">
+      <c r="D35">
         <v>300</v>
       </c>
-      <c r="D16" s="6">
-        <v>5514</v>
-      </c>
-      <c r="E16" s="2">
-        <v>37239</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="4">
+      <c r="C36">
         <v>6</v>
       </c>
-      <c r="C17" s="5">
+      <c r="D36">
         <v>288</v>
       </c>
-      <c r="D17" s="6">
-        <v>7125</v>
-      </c>
-      <c r="E17" s="2">
-        <v>30819</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="4">
+      <c r="C37">
         <v>5</v>
       </c>
-      <c r="C18" s="5">
+      <c r="D37">
         <v>153</v>
       </c>
-      <c r="D18" s="6">
-        <v>5694</v>
-      </c>
-      <c r="E18" s="2">
-        <v>18136</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>23</v>
+      </c>
+      <c r="B38" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="4">
+      <c r="C38">
         <v>5</v>
       </c>
-      <c r="C19" s="5">
+      <c r="D38">
         <v>123</v>
       </c>
-      <c r="D19" s="6">
-        <v>6210</v>
-      </c>
-      <c r="E19" s="2">
-        <v>15325</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>23</v>
+      </c>
+      <c r="B39" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="4">
+      <c r="C39">
         <v>4</v>
       </c>
-      <c r="C20" s="5">
+      <c r="D39">
         <v>207</v>
       </c>
-      <c r="D20" s="6">
-        <v>5757</v>
-      </c>
-      <c r="E20" s="2">
-        <v>13918</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="13"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="14"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="15"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>34</v>
+      </c>
+      <c r="B40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>34</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>34</v>
+      </c>
+      <c r="B42" t="s">
+        <v>2</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>34</v>
+      </c>
+      <c r="B43" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>34</v>
+      </c>
+      <c r="B44" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>34</v>
+      </c>
+      <c r="B45" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>34</v>
+      </c>
+      <c r="B46" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>34</v>
+      </c>
+      <c r="B47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>34</v>
+      </c>
+      <c r="B48" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>34</v>
+      </c>
+      <c r="B49" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>34</v>
+      </c>
+      <c r="B50" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>34</v>
+      </c>
+      <c r="B51" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>34</v>
+      </c>
+      <c r="B52" t="s">
+        <v>12</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>34</v>
+      </c>
+      <c r="B53" t="s">
+        <v>13</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>34</v>
+      </c>
+      <c r="B54" t="s">
+        <v>14</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>34</v>
+      </c>
+      <c r="B55" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55">
+        <v>2</v>
+      </c>
+      <c r="D55">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>34</v>
+      </c>
+      <c r="B56" t="s">
+        <v>16</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>34</v>
+      </c>
+      <c r="B57" t="s">
+        <v>17</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>34</v>
+      </c>
+      <c r="B58" t="s">
+        <v>18</v>
+      </c>
+      <c r="C58">
+        <v>3</v>
+      </c>
+      <c r="D58">
+        <v>207</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -919,380 +1330,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E22"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4">
-        <v>127</v>
-      </c>
-      <c r="C2" s="5">
-        <v>636</v>
-      </c>
-      <c r="D2" s="6">
-        <v>10303</v>
-      </c>
-      <c r="E2" s="2">
-        <v>50520</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="10">
-        <v>25</v>
-      </c>
-      <c r="C3" s="11">
-        <v>558</v>
-      </c>
-      <c r="D3" s="12">
-        <v>2824</v>
-      </c>
-      <c r="E3" s="2">
-        <v>57173</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="10">
-        <v>18</v>
-      </c>
-      <c r="C4" s="11">
-        <v>609</v>
-      </c>
-      <c r="D4" s="12">
-        <v>3225</v>
-      </c>
-      <c r="E4" s="2">
-        <v>60213</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4">
-        <v>21</v>
-      </c>
-      <c r="C5" s="5">
-        <v>543</v>
-      </c>
-      <c r="D5" s="6">
-        <v>3615</v>
-      </c>
-      <c r="E5" s="2">
-        <v>54659</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4">
-        <v>12</v>
-      </c>
-      <c r="C6" s="5">
-        <v>384</v>
-      </c>
-      <c r="D6" s="6">
-        <v>3641</v>
-      </c>
-      <c r="E6" s="2">
-        <v>44345</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="4">
-        <v>27</v>
-      </c>
-      <c r="C7" s="5">
-        <v>594</v>
-      </c>
-      <c r="D7" s="6">
-        <v>3490</v>
-      </c>
-      <c r="E7" s="2">
-        <v>50128</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="4">
-        <v>48</v>
-      </c>
-      <c r="C8" s="5">
-        <v>669</v>
-      </c>
-      <c r="D8" s="6">
-        <v>3789</v>
-      </c>
-      <c r="E8" s="2">
-        <v>62163</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="4">
-        <v>27</v>
-      </c>
-      <c r="C9" s="5">
-        <v>843</v>
-      </c>
-      <c r="D9" s="6">
-        <v>3213</v>
-      </c>
-      <c r="E9" s="2">
-        <v>67423</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="4">
-        <v>29</v>
-      </c>
-      <c r="C10" s="5">
-        <v>660</v>
-      </c>
-      <c r="D10" s="6">
-        <v>3031</v>
-      </c>
-      <c r="E10" s="2">
-        <v>62899</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="4">
-        <v>32</v>
-      </c>
-      <c r="C11" s="5">
-        <v>576</v>
-      </c>
-      <c r="D11" s="6">
-        <v>2771</v>
-      </c>
-      <c r="E11" s="2">
-        <v>55463</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="4">
-        <v>32</v>
-      </c>
-      <c r="C12" s="5">
-        <v>606</v>
-      </c>
-      <c r="D12" s="6">
-        <v>3089</v>
-      </c>
-      <c r="E12" s="2">
-        <v>60479</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="4">
-        <v>34</v>
-      </c>
-      <c r="C13" s="5">
-        <v>522</v>
-      </c>
-      <c r="D13" s="6">
-        <v>3490</v>
-      </c>
-      <c r="E13" s="2">
-        <v>49974</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="4">
-        <v>45</v>
-      </c>
-      <c r="C14" s="5">
-        <v>426</v>
-      </c>
-      <c r="D14" s="6">
-        <v>3595</v>
-      </c>
-      <c r="E14" s="2">
-        <v>44140</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="4">
-        <v>65</v>
-      </c>
-      <c r="C15" s="5">
-        <v>273</v>
-      </c>
-      <c r="D15" s="6">
-        <v>4745</v>
-      </c>
-      <c r="E15" s="2">
-        <v>40888</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="4">
-        <v>38</v>
-      </c>
-      <c r="C16" s="5">
-        <v>300</v>
-      </c>
-      <c r="D16" s="6">
-        <v>5514</v>
-      </c>
-      <c r="E16" s="2">
-        <v>37239</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="4">
-        <v>68</v>
-      </c>
-      <c r="C17" s="5">
-        <v>288</v>
-      </c>
-      <c r="D17" s="6">
-        <v>7125</v>
-      </c>
-      <c r="E17" s="2">
-        <v>30819</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="4">
-        <v>74</v>
-      </c>
-      <c r="C18" s="5">
-        <v>153</v>
-      </c>
-      <c r="D18" s="6">
-        <v>5694</v>
-      </c>
-      <c r="E18" s="2">
-        <v>18136</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="4">
-        <v>82</v>
-      </c>
-      <c r="C19" s="5">
-        <v>123</v>
-      </c>
-      <c r="D19" s="6">
-        <v>6210</v>
-      </c>
-      <c r="E19" s="2">
-        <v>15325</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="4">
-        <v>91</v>
-      </c>
-      <c r="C20" s="5">
-        <v>207</v>
-      </c>
-      <c r="D20" s="6">
-        <v>5757</v>
-      </c>
-      <c r="E20" s="2">
-        <v>13918</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="13"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="14"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="15"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D39"/>
-  <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1301,16 +1343,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1408,8 +1450,8 @@
       <c r="C8">
         <v>48</v>
       </c>
-      <c r="D8">
-        <v>669</v>
+      <c r="D8" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1843,6 +1885,1104 @@
         <v>4</v>
       </c>
       <c r="D39">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>34</v>
+      </c>
+      <c r="B40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>34</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>34</v>
+      </c>
+      <c r="B42" t="s">
+        <v>2</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>34</v>
+      </c>
+      <c r="B43" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>34</v>
+      </c>
+      <c r="B44" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>34</v>
+      </c>
+      <c r="B45" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>34</v>
+      </c>
+      <c r="B46" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>34</v>
+      </c>
+      <c r="B47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>34</v>
+      </c>
+      <c r="B48" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>34</v>
+      </c>
+      <c r="B49" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>34</v>
+      </c>
+      <c r="B50" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>34</v>
+      </c>
+      <c r="B51" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>34</v>
+      </c>
+      <c r="B52" t="s">
+        <v>12</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>34</v>
+      </c>
+      <c r="B53" t="s">
+        <v>13</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>34</v>
+      </c>
+      <c r="B54" t="s">
+        <v>14</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>34</v>
+      </c>
+      <c r="B55" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55">
+        <v>2</v>
+      </c>
+      <c r="D55">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>34</v>
+      </c>
+      <c r="B56" t="s">
+        <v>16</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>34</v>
+      </c>
+      <c r="B57" t="s">
+        <v>17</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>34</v>
+      </c>
+      <c r="B58" t="s">
+        <v>18</v>
+      </c>
+      <c r="C58">
+        <v>3</v>
+      </c>
+      <c r="D58">
+        <v>207</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet6"/>
+  <dimension ref="A1:D58"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>127</v>
+      </c>
+      <c r="D2">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>25</v>
+      </c>
+      <c r="D3">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>18</v>
+      </c>
+      <c r="D4">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>21</v>
+      </c>
+      <c r="D5">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>27</v>
+      </c>
+      <c r="D7">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>48</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>27</v>
+      </c>
+      <c r="D9">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>29</v>
+      </c>
+      <c r="D10">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>32</v>
+      </c>
+      <c r="D11">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>32</v>
+      </c>
+      <c r="D12">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>34</v>
+      </c>
+      <c r="D13">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>45</v>
+      </c>
+      <c r="D14">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15">
+        <v>65</v>
+      </c>
+      <c r="D15">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16">
+        <v>38</v>
+      </c>
+      <c r="D16">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>68</v>
+      </c>
+      <c r="D17">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>74</v>
+      </c>
+      <c r="D18">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>82</v>
+      </c>
+      <c r="D19">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>91</v>
+      </c>
+      <c r="D20">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>12</v>
+      </c>
+      <c r="D21">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>4</v>
+      </c>
+      <c r="D22">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26">
+        <v>4</v>
+      </c>
+      <c r="D26">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27">
+        <v>8</v>
+      </c>
+      <c r="D27">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="D30">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31">
+        <v>4</v>
+      </c>
+      <c r="D31">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32">
+        <v>5</v>
+      </c>
+      <c r="D32">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33">
+        <v>6</v>
+      </c>
+      <c r="D33">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34">
+        <v>8</v>
+      </c>
+      <c r="D34">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35">
+        <v>5</v>
+      </c>
+      <c r="D35">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36">
+        <v>6</v>
+      </c>
+      <c r="D36">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37">
+        <v>5</v>
+      </c>
+      <c r="D37">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>23</v>
+      </c>
+      <c r="B38" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38">
+        <v>5</v>
+      </c>
+      <c r="D38">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>23</v>
+      </c>
+      <c r="B39" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39">
+        <v>4</v>
+      </c>
+      <c r="D39">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>34</v>
+      </c>
+      <c r="B40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>34</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>34</v>
+      </c>
+      <c r="B42" t="s">
+        <v>2</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>34</v>
+      </c>
+      <c r="B43" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>34</v>
+      </c>
+      <c r="B44" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>34</v>
+      </c>
+      <c r="B45" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>34</v>
+      </c>
+      <c r="B46" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>34</v>
+      </c>
+      <c r="B47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>34</v>
+      </c>
+      <c r="B48" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>34</v>
+      </c>
+      <c r="B49" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>34</v>
+      </c>
+      <c r="B50" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>34</v>
+      </c>
+      <c r="B51" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>34</v>
+      </c>
+      <c r="B52" t="s">
+        <v>12</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>34</v>
+      </c>
+      <c r="B53" t="s">
+        <v>13</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>34</v>
+      </c>
+      <c r="B54" t="s">
+        <v>14</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>34</v>
+      </c>
+      <c r="B55" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55">
+        <v>2</v>
+      </c>
+      <c r="D55">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>34</v>
+      </c>
+      <c r="B56" t="s">
+        <v>16</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>34</v>
+      </c>
+      <c r="B57" t="s">
+        <v>17</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>34</v>
+      </c>
+      <c r="B58" t="s">
+        <v>18</v>
+      </c>
+      <c r="C58">
+        <v>3</v>
+      </c>
+      <c r="D58">
         <v>207</v>
       </c>
     </row>
@@ -1854,104 +2994,829 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L3"/>
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21:D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.140625" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="18"/>
-    <col min="7" max="9" width="12" style="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11" style="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" s="17" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>127</v>
+      </c>
+      <c r="D2">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>25</v>
+      </c>
+      <c r="D3">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>18</v>
+      </c>
+      <c r="D4">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>21</v>
+      </c>
+      <c r="D5">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7">
         <v>27</v>
       </c>
-      <c r="F1" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="17" t="s">
+      <c r="D7">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>48</v>
+      </c>
+      <c r="D8">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>27</v>
+      </c>
+      <c r="D9">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10">
         <v>29</v>
       </c>
-      <c r="H1" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="I1"/>
-      <c r="J1"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2">
-        <v>895</v>
-      </c>
-      <c r="C2">
-        <v>868.50151748646806</v>
-      </c>
-      <c r="D2">
-        <v>103.0510577103217</v>
-      </c>
-      <c r="E2">
-        <v>96.409377931556691</v>
-      </c>
-      <c r="F2" s="18">
-        <v>110.02973422891613</v>
-      </c>
-      <c r="G2" s="18">
-        <v>92.73292021007164</v>
-      </c>
-      <c r="H2" s="18">
-        <v>114.14646602306746</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3">
+      <c r="D10">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>32</v>
+      </c>
+      <c r="D11">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>32</v>
+      </c>
+      <c r="D12">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>34</v>
+      </c>
+      <c r="D13">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>45</v>
+      </c>
+      <c r="D14">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15">
+        <v>65</v>
+      </c>
+      <c r="D15">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16">
+        <v>38</v>
+      </c>
+      <c r="D16">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>68</v>
+      </c>
+      <c r="D17">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>74</v>
+      </c>
+      <c r="D18">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>82</v>
+      </c>
+      <c r="D19">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
         <v>91</v>
       </c>
-      <c r="C3">
-        <v>868.50151748646806</v>
-      </c>
-      <c r="D3">
-        <v>10.477817040937738</v>
-      </c>
-      <c r="E3">
-        <v>8.4360846839824468</v>
-      </c>
-      <c r="F3">
-        <v>12.864437501491011</v>
-      </c>
-      <c r="G3">
-        <v>7.4085413723165336</v>
-      </c>
-      <c r="H3" s="18">
-        <v>14.336073922784124</v>
-      </c>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
+      <c r="D20">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>12</v>
+      </c>
+      <c r="D21">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>4</v>
+      </c>
+      <c r="D22">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26">
+        <v>4</v>
+      </c>
+      <c r="D26">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27">
+        <v>8</v>
+      </c>
+      <c r="D27">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="D30">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31">
+        <v>4</v>
+      </c>
+      <c r="D31">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32">
+        <v>5</v>
+      </c>
+      <c r="D32">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33">
+        <v>6</v>
+      </c>
+      <c r="D33">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34">
+        <v>8</v>
+      </c>
+      <c r="D34">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35">
+        <v>5</v>
+      </c>
+      <c r="D35">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36">
+        <v>6</v>
+      </c>
+      <c r="D36">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37">
+        <v>5</v>
+      </c>
+      <c r="D37">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>23</v>
+      </c>
+      <c r="B38" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38">
+        <v>5</v>
+      </c>
+      <c r="D38">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>23</v>
+      </c>
+      <c r="B39" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39">
+        <v>4</v>
+      </c>
+      <c r="D39">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>34</v>
+      </c>
+      <c r="B40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>34</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>34</v>
+      </c>
+      <c r="B42" t="s">
+        <v>2</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>34</v>
+      </c>
+      <c r="B43" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>34</v>
+      </c>
+      <c r="B44" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>34</v>
+      </c>
+      <c r="B45" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>34</v>
+      </c>
+      <c r="B46" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>34</v>
+      </c>
+      <c r="B47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>34</v>
+      </c>
+      <c r="B48" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>34</v>
+      </c>
+      <c r="B49" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>34</v>
+      </c>
+      <c r="B50" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>34</v>
+      </c>
+      <c r="B51" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>34</v>
+      </c>
+      <c r="B52" t="s">
+        <v>12</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>34</v>
+      </c>
+      <c r="B53" t="s">
+        <v>13</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>34</v>
+      </c>
+      <c r="B54" t="s">
+        <v>14</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>34</v>
+      </c>
+      <c r="B55" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55">
+        <v>2</v>
+      </c>
+      <c r="D55">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>34</v>
+      </c>
+      <c r="B56" t="s">
+        <v>16</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>34</v>
+      </c>
+      <c r="B57" t="s">
+        <v>17</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>34</v>
+      </c>
+      <c r="B58" t="s">
+        <v>18</v>
+      </c>
+      <c r="C58">
+        <v>3</v>
+      </c>
+      <c r="D58">
+        <v>207</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1961,23 +3826,364 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:M10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.140625" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="3"/>
+    <col min="8" max="10" width="12" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1"/>
+      <c r="K1"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2">
+        <v>895</v>
+      </c>
+      <c r="D2">
+        <v>868.50151748646806</v>
+      </c>
+      <c r="E2">
+        <v>103.0510577103217</v>
+      </c>
+      <c r="F2">
+        <v>96.409377931556691</v>
+      </c>
+      <c r="G2" s="3">
+        <v>110.02973422891613</v>
+      </c>
+      <c r="H2" s="3">
+        <v>92.73292021007164</v>
+      </c>
+      <c r="I2" s="3">
+        <v>114.14646602306746</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3">
+        <v>91</v>
+      </c>
+      <c r="D3">
+        <v>868.50151748646806</v>
+      </c>
+      <c r="E3">
+        <v>10.477817040937738</v>
+      </c>
+      <c r="F3">
+        <v>8.4358550758264759</v>
+      </c>
+      <c r="G3">
+        <v>12.864573288487314</v>
+      </c>
+      <c r="H3">
+        <v>7.4064115794269885</v>
+      </c>
+      <c r="I3" s="3">
+        <v>14.338405403444703</v>
+      </c>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>868.50151748646806</v>
+      </c>
+      <c r="E4">
+        <v>0.92112677282969124</v>
+      </c>
+      <c r="F4">
+        <v>0.39767716085796179</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1.8149869519875559</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0.22692118344756632</v>
+      </c>
+      <c r="I4" s="3">
+        <v>2.4359425677307018</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5">
+        <v>895</v>
+      </c>
+      <c r="D5">
+        <v>868.50151748646806</v>
+      </c>
+      <c r="E5">
+        <f>E2/100</f>
+        <v>1.030510577103217</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ref="F5:I5" si="0">F2/100</f>
+        <v>0.96409377931556695</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>1.1002973422891613</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>0.92732920210071645</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>1.1414646602306746</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6">
+        <v>91</v>
+      </c>
+      <c r="D6">
+        <v>868.50151748646806</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ref="E6:I6" si="1">E3/100</f>
+        <v>0.10477817040937738</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>8.4358550758264761E-2</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>0.12864573288487313</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>7.4064115794269886E-2</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>0.14338405403444704</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>868.50151748646806</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ref="E7:I7" si="2">E4/100</f>
+        <v>9.2112677282969128E-3</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="2"/>
+        <v>3.9767716085796177E-3</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>1.8149869519875558E-2</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>2.2692118344756632E-3</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="2"/>
+        <v>2.435942567730702E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8">
+        <v>895</v>
+      </c>
+      <c r="D8">
+        <v>868.50151748646806</v>
+      </c>
+      <c r="E8">
+        <v>10014.578176786832</v>
+      </c>
+      <c r="F8">
+        <v>9369.1348126187768</v>
+      </c>
+      <c r="G8">
+        <v>10692.771133936561</v>
+      </c>
+      <c r="H8">
+        <v>9011.8539260027446</v>
+      </c>
+      <c r="I8" s="3">
+        <v>11092.838181295581</v>
+      </c>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9">
+        <v>91</v>
+      </c>
+      <c r="D9">
+        <v>868.50151748646806</v>
+      </c>
+      <c r="E9">
+        <v>1018.2420269135216</v>
+      </c>
+      <c r="F9">
+        <v>819.80264950202934</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1250.1887682774923</v>
+      </c>
+      <c r="H9" s="3">
+        <v>719.76056742794265</v>
+      </c>
+      <c r="I9" s="3">
+        <v>1393.4168657142982</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <v>868.50151748646806</v>
+      </c>
+      <c r="E10" s="3">
+        <v>89.515782585804089</v>
+      </c>
+      <c r="F10" s="3">
+        <v>38.646561277709161</v>
+      </c>
+      <c r="G10" s="3">
+        <v>176.38177738671445</v>
+      </c>
+      <c r="H10" s="3">
+        <v>22.052368816948309</v>
+      </c>
+      <c r="I10" s="3">
+        <v>236.7267044194399</v>
+      </c>
+      <c r="J10"/>
+      <c r="K10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">

--- a/tests/testthat/testdata_ISR.xlsx
+++ b/tests/testthat/testdata_ISR.xlsx
@@ -2166,7 +2166,7 @@
   <dimension ref="A1:D58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2283,7 +2283,7 @@
         <v>48</v>
       </c>
       <c r="D8" s="4">
-        <v>0</v>
+        <v>-36</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
